--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Список ставок" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>№ п./п.</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Дата добавления</t>
   </si>
   <si>
-    <t xml:space="preserve">${objectName}                                           </t>
-  </si>
-  <si>
     <t>${currentDate}</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Коэф.</t>
   </si>
   <si>
-    <t>прибыль</t>
-  </si>
-  <si>
     <t>${profit}</t>
   </si>
   <si>
@@ -90,6 +84,87 @@
   </si>
   <si>
     <t>${table:statistics.profit}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${objectName}     </t>
+  </si>
+  <si>
+    <t>Дата экспорта</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Все матчи</t>
+  </si>
+  <si>
+    <t>${table:reports.id}</t>
+  </si>
+  <si>
+    <t>${table:reports.allMatch}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyOne}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyTwo_zero}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyTwo_one}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyTwo_two}</t>
+  </si>
+  <si>
+    <t>${table:reports.allMatch_withoutLeagues}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyOne_withoutLeagues}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyTwo_zero_withoutLeagues}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyTwo_one_withoutLeagues}</t>
+  </si>
+  <si>
+    <t>${table:reports.strategyTwo_two_withoutLeagues}</t>
+  </si>
+  <si>
+    <t>Первая стратегия</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>${beforeDate}</t>
+  </si>
+  <si>
+    <t>${afterDate}</t>
+  </si>
+  <si>
+    <t>до</t>
+  </si>
+  <si>
+    <t>${table:reports.createdBy}</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата </t>
+  </si>
+  <si>
+    <t>Основная лига</t>
+  </si>
+  <si>
+    <t>Вторая лига</t>
   </si>
 </sst>
 </file>
@@ -143,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,13 +241,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -219,8 +321,64 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,24 +684,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O9"/>
+  <dimension ref="A2:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="4" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
@@ -552,163 +711,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="13" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -718,14 +855,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -344,6 +344,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,29 +368,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,18 +718,18 @@
         <v>23</v>
       </c>
       <c r="C2" s="19"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
@@ -873,7 +873,7 @@
     <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -886,10 +886,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
       <c r="G2" s="14"/>
@@ -922,23 +922,23 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="37" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -956,10 +956,10 @@
       <c r="E5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -997,10 +997,10 @@
       <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="11" t="s">

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Список ставок" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>${table:statistics.commandTwo}</t>
   </si>
   <si>
-    <t>${table:statistics.modified}</t>
-  </si>
-  <si>
     <t>${table:statistics.index}</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>${table:statistics.commandOne}</t>
   </si>
   <si>
-    <t>${table:statistics.created}</t>
-  </si>
-  <si>
     <t>Коэф.</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>Вторая лига</t>
+  </si>
+  <si>
+    <t>${table:statistics.createdBy}</t>
+  </si>
+  <si>
+    <t>${table:statistics.modifiedBy}</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,11 +715,11 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34" t="s">
@@ -727,11 +727,11 @@
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="5"/>
@@ -768,31 +768,31 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>7</v>
@@ -816,19 +816,19 @@
         <v>6</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="35"/>
       <c r="E2" s="23"/>
@@ -895,19 +895,19 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="M2" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -931,7 +931,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="39"/>
       <c r="G4" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
@@ -945,37 +945,37 @@
         <v>0</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="L5" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>1</v>
@@ -983,43 +983,43 @@
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="I6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="M6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>№ п./п.</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Дата добавления</t>
   </si>
   <si>
-    <t>${currentDate}</t>
-  </si>
-  <si>
     <t>ОТЧЁТ</t>
   </si>
   <si>
@@ -62,30 +59,18 @@
     <t>${table:statistics.rate}</t>
   </si>
   <si>
-    <t>Дата исправления</t>
-  </si>
-  <si>
     <t>${table:statistics.commandOne}</t>
   </si>
   <si>
     <t>Коэф.</t>
   </si>
   <si>
-    <t>${profit}</t>
-  </si>
-  <si>
-    <t>Общая прибыль</t>
-  </si>
-  <si>
     <t>${table:statistics.profit}</t>
   </si>
   <si>
     <t xml:space="preserve">${objectName}     </t>
   </si>
   <si>
-    <t>Дата экспорта</t>
-  </si>
-  <si>
     <t>Прибыль</t>
   </si>
   <si>
@@ -164,14 +149,23 @@
     <t>${table:statistics.createdBy}</t>
   </si>
   <si>
-    <t>${table:statistics.modifiedBy}</t>
+    <t>${table:statistics.total}</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>${table:statistics.typeMatch}</t>
+  </si>
+  <si>
+    <t>Тип матча</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +203,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,10 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -300,9 +301,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -320,9 +318,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,14 +351,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -684,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O7"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,13 +685,13 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
@@ -710,144 +699,95 @@
     <col min="17" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -858,7 +798,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I2" sqref="I2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,159 +818,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="F6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Список ставок" sheetId="1" r:id="rId1"/>
-    <sheet name="Список отчетов" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>№ п./п.</t>
   </si>
@@ -23,9 +22,6 @@
     <t>Дата добавления</t>
   </si>
   <si>
-    <t>ОТЧЁТ</t>
-  </si>
-  <si>
     <t>${table:statistics.id}</t>
   </si>
   <si>
@@ -68,82 +64,7 @@
     <t>${table:statistics.profit}</t>
   </si>
   <si>
-    <t xml:space="preserve">${objectName}     </t>
-  </si>
-  <si>
     <t>Прибыль</t>
-  </si>
-  <si>
-    <t>Все матчи</t>
-  </si>
-  <si>
-    <t>${table:reports.id}</t>
-  </si>
-  <si>
-    <t>${table:reports.allMatch}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyOne}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyTwo_zero}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyTwo_one}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyTwo_two}</t>
-  </si>
-  <si>
-    <t>${table:reports.allMatch_withoutLeagues}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyOne_withoutLeagues}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyTwo_zero_withoutLeagues}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyTwo_one_withoutLeagues}</t>
-  </si>
-  <si>
-    <t>${table:reports.strategyTwo_two_withoutLeagues}</t>
-  </si>
-  <si>
-    <t>Первая стратегия</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>${beforeDate}</t>
-  </si>
-  <si>
-    <t>${afterDate}</t>
-  </si>
-  <si>
-    <t>до</t>
-  </si>
-  <si>
-    <t>${table:reports.createdBy}</t>
-  </si>
-  <si>
-    <t>от</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата </t>
-  </si>
-  <si>
-    <t>Основная лига</t>
-  </si>
-  <si>
-    <t>Вторая лига</t>
   </si>
   <si>
     <t>${table:statistics.createdBy}</t>
@@ -165,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,26 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,71 +144,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -316,58 +180,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +493,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +502,13 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
@@ -699,286 +516,96 @@
     <col min="17" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J13" s="29"/>
+      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="A4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -31,9 +31,6 @@
     <t>${table:statistics.score}</t>
   </si>
   <si>
-    <t>${table:statistics.commandTwo}</t>
-  </si>
-  <si>
     <t>${table:statistics.index}</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>${table:statistics.rate}</t>
   </si>
   <si>
-    <t>${table:statistics.commandOne}</t>
-  </si>
-  <si>
     <t>Коэф.</t>
   </si>
   <si>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>Тип матча</t>
+  </si>
+  <si>
+    <t>${table:statistics.command.ru.one}</t>
+  </si>
+  <si>
+    <t>${table:statistics.command.ru.two}</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,31 +521,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1</v>
@@ -555,7 +555,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -563,31 +563,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>№ п./п.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -46,12 +43,6 @@
     <t>Счет</t>
   </si>
   <si>
-    <t>Ставка</t>
-  </si>
-  <si>
-    <t>${table:statistics.rate}</t>
-  </si>
-  <si>
     <t>Коэф.</t>
   </si>
   <si>
@@ -76,10 +67,121 @@
     <t>Тип матча</t>
   </si>
   <si>
-    <t>${table:statistics.command.ru.one}</t>
-  </si>
-  <si>
-    <t>${table:statistics.command.ru.two}</t>
+    <t>Лига</t>
+  </si>
+  <si>
+    <t>${table:statistics.group.en}</t>
+  </si>
+  <si>
+    <t>${table:statistics.command.en.one}</t>
+  </si>
+  <si>
+    <t>${table:statistics.command.en.two}</t>
+  </si>
+  <si>
+    <t>Жен.</t>
+  </si>
+  <si>
+    <t>${table:statistics.command.youth}</t>
+  </si>
+  <si>
+    <t>${table:statistics.command.women}</t>
+  </si>
+  <si>
+    <t>Мол.</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>mod(p1-p2)</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Атаки</t>
+  </si>
+  <si>
+    <t>Красные карточки</t>
+  </si>
+  <si>
+    <t>Момент срабатывания стратегии</t>
+  </si>
+  <si>
+    <t>Получения Total</t>
+  </si>
+  <si>
+    <t>Опасные атаки</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.end.time}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.end.p1}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.end.x}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.end.p2}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.end.mod}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.one.red}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.one.attacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.one.danAttacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.two.red}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.two.attacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.two.danAttacks}</t>
+  </si>
+  <si>
+    <t>Коэфициены</t>
+  </si>
+  <si>
+    <t>Карты</t>
+  </si>
+  <si>
+    <t>Расчет</t>
+  </si>
+  <si>
+    <t>Общая информация</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.start.mod}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.start.p2}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.start.x}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.start.p1}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.start.time}</t>
   </si>
 </sst>
 </file>
@@ -121,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -144,21 +246,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -170,12 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -185,6 +481,93 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,121 +873,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M12" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:29" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="30"/>
+    </row>
+    <row r="3" spans="1:29" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="31"/>
+    </row>
+    <row r="4" spans="1:29" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J13" s="12"/>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M13" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="M1:V1"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>${table:statistics.typeMatch}</t>
-  </si>
-  <si>
-    <t>Тип матча</t>
-  </si>
-  <si>
     <t>Лига</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Мол.</t>
   </si>
   <si>
-    <t>Время</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
@@ -103,24 +94,15 @@
     <t>p2</t>
   </si>
   <si>
-    <t>mod(p1-p2)</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
     <t>Атаки</t>
   </si>
   <si>
-    <t>Красные карточки</t>
-  </si>
-  <si>
     <t>Момент срабатывания стратегии</t>
   </si>
   <si>
-    <t>Получения Total</t>
-  </si>
-  <si>
     <t>Опасные атаки</t>
   </si>
   <si>
@@ -139,30 +121,6 @@
     <t>${table:statistics.snapshot.end.mod}</t>
   </si>
   <si>
-    <t>${table:statistics.cards.one.red}</t>
-  </si>
-  <si>
-    <t>${table:statistics.cards.one.attacks}</t>
-  </si>
-  <si>
-    <t>${table:statistics.cards.one.danAttacks}</t>
-  </si>
-  <si>
-    <t>${table:statistics.cards.two.red}</t>
-  </si>
-  <si>
-    <t>${table:statistics.cards.two.attacks}</t>
-  </si>
-  <si>
-    <t>${table:statistics.cards.two.danAttacks}</t>
-  </si>
-  <si>
-    <t>Коэфициены</t>
-  </si>
-  <si>
-    <t>Карты</t>
-  </si>
-  <si>
     <t>Расчет</t>
   </si>
   <si>
@@ -182,23 +140,101 @@
   </si>
   <si>
     <t>${table:statistics.snapshot.start.time}</t>
+  </si>
+  <si>
+    <t>Нахождения Total</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Карты до</t>
+  </si>
+  <si>
+    <t>Карты после</t>
+  </si>
+  <si>
+    <t>створ</t>
+  </si>
+  <si>
+    <t>ворот</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.one.red}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.one.attacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.one.danAttacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.one.shotsOn}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.one.shotsOff}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.two.red}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.two.attacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.two.danAttacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.two.shotsOn}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.before.two.shotsOff}</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.one.red}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.one.attacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.one.danAttacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.one.shotsOn}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.one.shotsOff}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.two.red}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.two.attacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.two.danAttacks}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.two.shotsOn}</t>
+  </si>
+  <si>
+    <t>${table:statistics.cards.after.two.shotsOff}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -452,122 +488,284 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,311 +1071,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M11:M12"/>
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="25" t="s">
+    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="29" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="20" t="s">
-        <v>33</v>
-      </c>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="17" t="s">
+      <c r="U2" s="19"/>
+      <c r="V2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="17" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="30"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="21"/>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="20"/>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="16" t="s">
+      <c r="R4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="31"/>
+      <c r="T4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M13" s="8"/>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="M1:V1"/>
+  <mergeCells count="12">
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -641,131 +641,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,22 +1074,22 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
@@ -1122,368 +1122,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="11" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="11" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="12" t="s">
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="41" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="38" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="21"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="36"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="W3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AG3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AI3" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AK3" s="25" t="s">
+      <c r="AK3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AL3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AM3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AN3" s="22" t="s">
+      <c r="AN3" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AP3" s="20"/>
+      <c r="AP3" s="37"/>
     </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AF4" s="33" t="s">
+      <c r="AF4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AJ4" s="31" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AK4" s="33" t="s">
+      <c r="AK4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AM4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AN4" s="31" t="s">
+      <c r="AN4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AO4" s="34" t="s">
+      <c r="AO4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AP4" s="35" t="s">
+      <c r="AP4" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1492,18 +1492,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Список ставок" sheetId="1" r:id="rId1"/>
+    <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Стратегния 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Стратегния  3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="71">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -25,9 +27,6 @@
     <t>${table:statistics.matchId}</t>
   </si>
   <si>
-    <t>${table:statistics.score}</t>
-  </si>
-  <si>
     <t>${table:statistics.index}</t>
   </si>
   <si>
@@ -227,12 +226,18 @@
   </si>
   <si>
     <t>${table:statistics.cards.after.two.shotsOff}</t>
+  </si>
+  <si>
+    <t>${table:statistics.displayScore}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -680,9 +685,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,13 +734,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,7 +1083,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,246 +1127,246 @@
     <col min="38" max="38" width="6.140625" customWidth="1"/>
     <col min="40" max="40" width="6.140625" customWidth="1"/>
     <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="38" t="s">
+      <c r="A1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="35" t="s">
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="29" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="29" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="36"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="X3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AA3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AF3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AK3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AO3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP3" s="37"/>
+      <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1367,124 +1376,124 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="K4" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="V4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AB4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="AF4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AH4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AK4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AL4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AM4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AO4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AO4" s="18" t="s">
-        <v>70</v>
-      </c>
       <c r="AP4" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -1508,4 +1517,884 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
+    </row>
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP3" s="38"/>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
+    </row>
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP3" s="38"/>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -10,13 +10,16 @@
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
     <sheet name="Стратегния 2" sheetId="2" r:id="rId2"/>
     <sheet name="Стратегния  3" sheetId="3" r:id="rId3"/>
+    <sheet name="0-0" sheetId="4" r:id="rId4"/>
+    <sheet name="1-1" sheetId="5" r:id="rId5"/>
+    <sheet name="other" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="71">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -105,9 +108,6 @@
     <t>Опасные атаки</t>
   </si>
   <si>
-    <t>${table:statistics.snapshot.end.time}</t>
-  </si>
-  <si>
     <t>${table:statistics.snapshot.end.p1}</t>
   </si>
   <si>
@@ -138,9 +138,6 @@
     <t>${table:statistics.snapshot.start.p1}</t>
   </si>
   <si>
-    <t>${table:statistics.snapshot.start.time}</t>
-  </si>
-  <si>
     <t>Нахождения Total</t>
   </si>
   <si>
@@ -229,6 +226,12 @@
   </si>
   <si>
     <t>${table:statistics.displayScore}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.start.displayTime}</t>
+  </si>
+  <si>
+    <t>${table:statistics.snapshot.end.displayTime}</t>
   </si>
 </sst>
 </file>
@@ -689,6 +692,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,66 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,116 +1134,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1277,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>22</v>
@@ -1289,10 +1292,10 @@
         <v>24</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>22</v>
@@ -1304,10 +1307,10 @@
         <v>24</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>26</v>
@@ -1316,13 +1319,13 @@
         <v>28</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>26</v>
@@ -1331,13 +1334,13 @@
         <v>28</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>26</v>
@@ -1346,13 +1349,13 @@
         <v>28</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL3" s="6" t="s">
         <v>26</v>
@@ -1361,12 +1364,12 @@
         <v>28</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" s="38"/>
+        <v>46</v>
+      </c>
+      <c r="AP3" s="23"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1391,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>12</v>
@@ -1403,94 +1406,94 @@
         <v>9</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="V4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AA4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AC4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AG4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AK4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AL4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AM4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AO4" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="AP4" s="19" t="s">
         <v>11</v>
@@ -1501,6 +1504,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="I1:K2"/>
     <mergeCell ref="Q2:U2"/>
@@ -1508,11 +1516,6 @@
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1524,7 +1527,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,116 +1575,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1718,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>22</v>
@@ -1730,10 +1733,10 @@
         <v>24</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>22</v>
@@ -1745,10 +1748,10 @@
         <v>24</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>26</v>
@@ -1757,13 +1760,13 @@
         <v>28</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>26</v>
@@ -1772,13 +1775,13 @@
         <v>28</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>26</v>
@@ -1787,13 +1790,13 @@
         <v>28</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL3" s="6" t="s">
         <v>26</v>
@@ -1802,12 +1805,12 @@
         <v>28</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" s="38"/>
+        <v>46</v>
+      </c>
+      <c r="AP3" s="23"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1832,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>12</v>
@@ -1844,94 +1847,94 @@
         <v>9</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="V4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AA4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AC4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AG4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AK4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AL4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AM4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AO4" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="AP4" s="19" t="s">
         <v>11</v>
@@ -1942,11 +1945,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -1954,6 +1952,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1964,7 +1967,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,116 +2015,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2158,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>22</v>
@@ -2170,10 +2173,10 @@
         <v>24</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>22</v>
@@ -2185,10 +2188,10 @@
         <v>24</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>26</v>
@@ -2197,13 +2200,13 @@
         <v>28</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>26</v>
@@ -2212,13 +2215,13 @@
         <v>28</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>26</v>
@@ -2227,13 +2230,13 @@
         <v>28</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL3" s="6" t="s">
         <v>26</v>
@@ -2242,12 +2245,12 @@
         <v>28</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" s="38"/>
+        <v>46</v>
+      </c>
+      <c r="AP3" s="23"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2272,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>12</v>
@@ -2284,94 +2287,1414 @@
         <v>9</v>
       </c>
       <c r="L4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="23"/>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="M4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="30" t="s">
         <v>39</v>
       </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="23"/>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="N4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="23"/>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="N4" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="O4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="V4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AA4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AC4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AG4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AK4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AL4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AM4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AO4" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="AP4" s="19" t="s">
         <v>11</v>

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
     <sheet name="Стратегния 2" sheetId="2" r:id="rId2"/>
     <sheet name="Стратегния  3" sheetId="3" r:id="rId3"/>
-    <sheet name="0-0" sheetId="4" r:id="rId4"/>
-    <sheet name="1-1" sheetId="5" r:id="rId5"/>
-    <sheet name="other" sheetId="6" r:id="rId6"/>
+    <sheet name="Фильтры" sheetId="4" r:id="rId4"/>
+    <sheet name="other" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="71">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -692,6 +691,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,51 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1134,116 +1133,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="34" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="47" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="33" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="35" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="22"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1369,7 +1368,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="23"/>
+      <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1504,11 +1503,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="I1:K2"/>
     <mergeCell ref="Q2:U2"/>
@@ -1516,6 +1510,11 @@
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1575,116 +1574,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="34" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="47" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="33" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="35" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="22"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1810,7 +1809,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="23"/>
+      <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1945,6 +1944,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -1952,11 +1956,6 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1966,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2015,116 +2014,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="34" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="47" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="33" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="35" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="22"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2250,7 +2249,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="23"/>
+      <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2385,6 +2384,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -2392,11 +2396,6 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2407,7 +2406,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,116 +2454,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="34" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="47" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="33" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="35" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="22"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2690,7 +2689,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="23"/>
+      <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2825,11 +2824,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -2837,6 +2831,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2895,116 +2894,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="34" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="47" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="33" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="35" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="22"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="37"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3130,7 +3129,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="23"/>
+      <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -3265,11 +3264,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -3277,446 +3271,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="22"/>
-    </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="23"/>
-    </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP4" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L13" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:K2"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
     <sheet name="Стратегния 2" sheetId="2" r:id="rId2"/>
     <sheet name="Стратегния  3" sheetId="3" r:id="rId3"/>
-    <sheet name="Фильтры" sheetId="4" r:id="rId4"/>
-    <sheet name="other" sheetId="6" r:id="rId5"/>
+    <sheet name="Стратегния  4" sheetId="7" r:id="rId4"/>
+    <sheet name="Стратегния  5" sheetId="8" r:id="rId5"/>
+    <sheet name="Стратегния  6" sheetId="9" r:id="rId6"/>
+    <sheet name="Стратегния  7" sheetId="10" r:id="rId7"/>
+    <sheet name="Фильтры" sheetId="4" r:id="rId8"/>
+    <sheet name="other" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="71">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -631,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,6 +695,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,66 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,7 +1092,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,116 +1140,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1368,7 +1375,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="38"/>
+      <c r="AP3" s="24"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1503,6 +1510,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="I1:K2"/>
     <mergeCell ref="Q2:U2"/>
@@ -1510,11 +1522,6 @@
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1574,116 +1581,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1809,7 +1816,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="38"/>
+      <c r="AP3" s="24"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1944,11 +1951,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -1956,6 +1958,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1965,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2014,116 +2021,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2249,7 +2256,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="38"/>
+      <c r="AP3" s="24"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2384,11 +2391,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -2396,12 +2398,1281 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
@@ -2454,116 +3725,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2689,7 +3960,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="38"/>
+      <c r="AP3" s="24"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2824,6 +4095,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -2831,22 +4107,17 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,116 +4165,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="27" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="27" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="30" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="37"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3129,7 +4400,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="38"/>
+      <c r="AP3" s="24"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -3264,6 +4535,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -3271,11 +4547,6 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exportTemplates/Reports-list-default.xlsx
+++ b/exportTemplates/Reports-list-default.xlsx
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
     <sheet name="Стратегния 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Стратегния  3" sheetId="3" r:id="rId3"/>
-    <sheet name="Стратегния  4" sheetId="7" r:id="rId4"/>
-    <sheet name="Стратегния  5" sheetId="8" r:id="rId5"/>
-    <sheet name="Стратегния  6" sheetId="9" r:id="rId6"/>
-    <sheet name="Стратегния  7" sheetId="10" r:id="rId7"/>
-    <sheet name="Фильтры" sheetId="4" r:id="rId8"/>
-    <sheet name="other" sheetId="6" r:id="rId9"/>
+    <sheet name="Стратегния 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Стратегния 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Стратегния 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Стратегния 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Стратегния 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Фильтры" sheetId="8" r:id="rId8"/>
+    <sheet name="other" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
